--- a/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 6,67</t>
+          <t>-1,48; 6,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,57</t>
+          <t>-3,3; 5,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,42</t>
+          <t>-7,35; 2,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,81</t>
+          <t>-5,99; 1,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 23,17</t>
+          <t>-4,34; 22,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 15,73</t>
+          <t>-8,12; 14,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 7,47</t>
+          <t>-17,66; 7,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 10,47</t>
+          <t>-25,74; 10,23</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,71</t>
+          <t>3,9; 10,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,89</t>
+          <t>-3,64; 2,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,76</t>
+          <t>-1,2; 4,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 21,91</t>
+          <t>2,12; 19,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 41,93</t>
+          <t>13,74; 39,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 7,63</t>
+          <t>-9,0; 7,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 14,19</t>
+          <t>-3,29; 14,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 144,95</t>
+          <t>11,89; 127,05</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 6,73</t>
+          <t>-5,26; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 6,22</t>
+          <t>-7,2; 6,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,46</t>
+          <t>-5,3; 6,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,72</t>
+          <t>-3,31; 6,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 22,92</t>
+          <t>-14,5; 23,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 15,36</t>
+          <t>-15,16; 15,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 17,3</t>
+          <t>-12,08; 18,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 29,2</t>
+          <t>-13,17; 30,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,96</t>
+          <t>2,69; 7,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,61</t>
+          <t>-2,2; 2,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,14</t>
+          <t>-1,85; 2,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 12,43</t>
+          <t>1,21; 13,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 24,77</t>
+          <t>8,83; 25,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,78</t>
+          <t>-5,32; 6,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 9,01</t>
+          <t>-5,03; 8,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 69,63</t>
+          <t>6,36; 77,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,5</t>
+          <t>-0,73; 6,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 5,21</t>
+          <t>-3,07; 5,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 2,54</t>
+          <t>-7,33; 2,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 22,13</t>
+          <t>-2,12; 22,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 14,45</t>
+          <t>-7,4; 15,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 7,74</t>
+          <t>-18,89; 7,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,17</t>
+          <t>4,47; 11,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,77</t>
+          <t>-3,37; 3,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,8</t>
+          <t>-1,24; 5,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,74; 39,56</t>
+          <t>14,78; 42,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 7,29</t>
+          <t>-8,31; 8,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 14,51</t>
+          <t>-3,43; 15,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 7,04</t>
+          <t>-4,64; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 6,38</t>
+          <t>-7,07; 6,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,9</t>
+          <t>-5,09; 7,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 23,9</t>
+          <t>-13,25; 23,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 15,9</t>
+          <t>-14,91; 16,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 18,66</t>
+          <t>-11,6; 19,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,26</t>
+          <t>2,72; 7,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,65</t>
+          <t>-2,21; 2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,95</t>
+          <t>-1,92; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 25,46</t>
+          <t>8,81; 25,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,86</t>
+          <t>-5,37; 6,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 8,53</t>
+          <t>-5,15; 8,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,46</t>
+          <t>-1,05; 6,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,59</t>
+          <t>-3,08; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,42</t>
+          <t>-7,06; 2,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 1,73</t>
+          <t>-6,05; 1,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 22,21</t>
+          <t>-2,93; 23,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 15,73</t>
+          <t>-7,59; 15,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 7,16</t>
+          <t>-17,8; 7,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 10,23</t>
+          <t>-26,82; 10,47</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,18</t>
+          <t>4,21; 10,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,05</t>
+          <t>-3,59; 2,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,03</t>
+          <t>-1,32; 4,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 19,38</t>
+          <t>2,24; 21,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 42,7</t>
+          <t>14,15; 41,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 8,03</t>
+          <t>-8,83; 7,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 15,36</t>
+          <t>-3,69; 14,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 127,05</t>
+          <t>12,85; 144,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 6,98</t>
+          <t>-5,22; 6,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 6,67</t>
+          <t>-6,49; 6,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 7,11</t>
+          <t>-5,42; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 6,0</t>
+          <t>-3,95; 5,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 23,23</t>
+          <t>-14,77; 22,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 16,42</t>
+          <t>-13,62; 15,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 19,81</t>
+          <t>-12,37; 17,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 30,08</t>
+          <t>-15,79; 29,2</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,25</t>
+          <t>2,5; 6,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,63</t>
+          <t>-2,2; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,98</t>
+          <t>-1,77; 3,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,83</t>
+          <t>1,04; 12,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 25,37</t>
+          <t>8,29; 24,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 6,87</t>
+          <t>-5,3; 6,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,63</t>
+          <t>-4,75; 9,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 77,33</t>
+          <t>5,23; 69,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-9,64%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,81</t>
+          <t>-6,14; 1,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 10,47</t>
+          <t>-27,21; 10,95</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>73,96%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 21,91</t>
+          <t>2,38; 34,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 144,95</t>
+          <t>13,92; 279,47</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,72</t>
+          <t>-5,39; 4,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 29,2</t>
+          <t>-19,82; 24,98</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>39,06%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 12,43</t>
+          <t>1,03; 21,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 69,63</t>
+          <t>4,96; 147,35</t>
         </is>
       </c>
     </row>
